--- a/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
@@ -451,491 +451,661 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6091</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>001182</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>易方达安心回馈混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>39.07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>005416</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>34.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.64</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>94.63</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003961</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>21.86</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001182</t>
+          <t>002351</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达安心回馈混合</t>
+          <t>易方达裕祥回报债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.47</t>
+          <t>341.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162203</t>
+          <t>001182</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利稳定混合</t>
+          <t>易方达安心回馈混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>40.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003839</t>
+          <t>003961</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合A</t>
+          <t>易方达瑞程灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.36</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003840</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合C</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.36</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003882</t>
+          <t>162203</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合A</t>
+          <t>泰达宏利稳定混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29.17</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3143</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003883</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合C</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.17</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003912</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合A</t>
+          <t>易方达瑞程灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003913</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合C</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003961</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合A</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>003882</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
+          <t>易方达瑞弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000507</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合A</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000508</t>
+          <t>162205</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合B</t>
+          <t>泰达宏利风险预算混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>162205</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰达宏利风险预算混合</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005983</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上投摩根核心精选股票</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>229002</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰达宏利逆向策略混合</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>88.68</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>003839</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>易方达瑞通灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>000507</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>泰达宏利宏达混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>020033</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国泰民安增利债券A</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>020034</t>
+          <t>005522</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰民安增利债券C</t>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002263</t>
+          <t>229002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泰达宏利同顺大数据量化优选灵活配置混合A</t>
+          <t>泰达宏利逆向策略混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>44.96</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003554</t>
+          <t>162212</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>泰达宏利同顺大数据量化优选灵活配置混合C</t>
+          <t>泰达宏利红利先锋混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>44.96</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>003912</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>泰达宏利启富灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>000508</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>泰达宏利宏达混合B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>22.72</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002351</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>易方达裕祥回报债券</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>162212</t>
+          <t>020033</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>泰达宏利红利先锋混合</t>
+          <t>国泰民安增利债券A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>020034</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>国泰民安增利债券C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005522</t>
+          <t>005983</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+          <t>上投摩根核心精选股票</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23.39</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>002263</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>泰达宏利同顺大数据量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
+          <t>44.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>003883</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>易方达瑞弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>003554</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>泰达宏利同顺大数据量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+          <t>44.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1882,25 +2382,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>003913</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>泰达宏利启富灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>003840</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>易方达瑞通灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2493,4 +2494,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3120,4 +3121,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3291,4 +3292,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3300,7 +3301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3311,17 +3312,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3331,14 +3352,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5</v>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3347,14 +3390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.71</v>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3363,14 +3428,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>8.06</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="5">
@@ -3379,13 +3550,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3471,7 +3472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3482,17 +3483,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3502,14 +3523,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.53</v>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3518,14 +3561,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -3534,14 +3599,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.71</v>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3550,14 +3637,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.06</v>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3566,13 +3675,279 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011677</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011678</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3830,7 +3831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3841,17 +3842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3861,14 +3882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.42</v>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1960</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3877,14 +3920,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.53</v>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3893,14 +3958,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3625</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3909,14 +3996,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.71</v>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3925,14 +4034,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.06</v>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3400</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3941,13 +4072,791 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -508,36 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003961</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6091</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.28</v>
       </c>
     </row>
     <row r="3">
@@ -546,36 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001182</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达安心回馈混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>39.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5551</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="4">
@@ -584,36 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2495</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="5">
@@ -622,36 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2143</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -660,36 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1780</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="7">
@@ -698,36 +568,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1154</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.06</v>
       </c>
     </row>
     <row r="8">
@@ -736,378 +584,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1150</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.86</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0884</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0695</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0497</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.32</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1142,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1172,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002351</t>
+          <t>000991</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达裕祥回报债券</t>
+          <t>工银瑞信战略转型主题股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>341.29</t>
+          <t>52.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>86.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1740</t>
+          <t>1.1960</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1210,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001182</t>
+          <t>003378</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达安心回馈混合</t>
+          <t>泰康策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.35</t>
+          <t>15.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39.47</t>
+          <t>87.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9523</t>
+          <t>0.4386</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1248,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003961</t>
+          <t>010874</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合A</t>
+          <t>泰康品质生活混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>87.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9236</t>
+          <t>0.3625</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1286,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>161219</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>国投瑞银新兴产业混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>79.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3564</t>
+          <t>0.3404</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1324,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162203</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰达宏利稳定混合</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3143</t>
+          <t>0.3400</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1362,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3088</t>
+          <t>0.2880</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1400,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2430</t>
+          <t>0.2673</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1438,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>81.30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2374</t>
+          <t>0.1721</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1476,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>010875</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>泰康品质生活混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>87.55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2323</t>
+          <t>0.1322</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1514,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003882</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合A</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.17</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2304</t>
+          <t>0.1148</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1552,36 +1036,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1551</t>
+          <t>0.1100</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1590,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>162205</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰达宏利风险预算混合</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>27.72</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1273</t>
+          <t>0.0957</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1628,36 +1112,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>008422</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>中融研发创新混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>22.72</t>
+          <t>82.80</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0960</t>
+          <t>0.0768</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1666,36 +1150,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>011473</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>工银瑞信战略转型主题股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>86.10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0935</t>
+          <t>0.0632</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1704,36 +1188,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>006973</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>太平睿盈混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0892</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1742,36 +1226,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003839</t>
+          <t>004671</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合A</t>
+          <t>中融核心成长灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27.36</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0849</t>
+          <t>0.0582</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1780,36 +1264,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000507</t>
+          <t>008129</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合A</t>
+          <t>湘财长源股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0643</t>
+          <t>0.0497</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1818,36 +1302,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>90.96</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0540</t>
+          <t>0.0360</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1856,36 +1340,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005522</t>
+          <t>008423</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+          <t>中融研发创新混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23.39</t>
+          <t>82.80</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0510</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1894,36 +1378,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>229002</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泰达宏利逆向策略混合</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>88.68</t>
+          <t>90.96</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1932,36 +1416,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>162212</t>
+          <t>011618</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>泰达宏利红利先锋混合</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>27.72</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0335</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1970,530 +1454,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003912</t>
+          <t>007669</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合A</t>
+          <t>太平睿盈混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0240</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>37.25</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000508</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>泰达宏利宏达混合B</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>24.78</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>33.29</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>020033</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国泰民安增利债券A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>20.62</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>020034</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国泰民安增利债券C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>20.62</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>36.07</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>81.03</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002263</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>泰达宏利同顺大数据量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>44.96</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003883</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>29.17</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>003554</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>泰达宏利同顺大数据量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>44.96</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>003913</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>泰达宏利启富灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>003840</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>27.36</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +1497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2528,7 +1518,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2558,36 +1548,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001182</t>
+          <t>161219</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达安心回馈混合</t>
+          <t>国投瑞银新兴产业混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60.47</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39.21</t>
+          <t>79.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7680</t>
+          <t>0.3849</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2596,36 +1586,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2031</t>
+          <t>0.3026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2634,36 +1624,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003882</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合A</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>26.49</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1842</t>
+          <t>0.2577</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2672,36 +1662,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.72</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1251</t>
+          <t>0.1856</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2710,36 +1700,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>93.39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0860</t>
+          <t>0.1775</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2758,26 +1748,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.11</t>
+          <t>24.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0771</t>
+          <t>0.0973</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2786,36 +1776,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>011677</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>中银睿丰回报混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>22.44</t>
+          <t>20.29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0649</t>
+          <t>0.0121</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2824,302 +1814,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>011678</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>中银睿丰回报混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>20.29</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0573</t>
-        </is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003883</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>26.49</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>25.72</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>25.42</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>22.44</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +1876,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3194,26 +1916,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2225</t>
+          <t>0.2281</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3232,22 +1954,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2038</t>
+          <t>0.2197</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3270,26 +1992,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31.20</t>
+          <t>30.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0752</t>
+          <t>0.0811</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +2046,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3364,26 +2086,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2281</t>
+          <t>0.2225</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3402,22 +2124,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2197</t>
+          <t>0.2038</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3440,26 +2162,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30.17</t>
+          <t>31.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0811</t>
+          <t>0.0752</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3473,7 +2195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3494,7 +2216,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3524,36 +2246,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161219</t>
+          <t>001182</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
+          <t>易方达安心回馈混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>60.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.83</t>
+          <t>39.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3849</t>
+          <t>0.7680</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3562,36 +2284,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3026</t>
+          <t>0.2031</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3600,36 +2322,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>003882</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>易方达瑞弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>26.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2577</t>
+          <t>0.1842</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3638,36 +2360,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>25.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1856</t>
+          <t>0.1251</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3676,36 +2398,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.39</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1775</t>
+          <t>0.0860</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3724,26 +2446,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.66</t>
+          <t>24.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0973</t>
+          <t>0.0771</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3752,36 +2474,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011677</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银睿丰回报混合型证券投资基金A</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>22.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0649</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3790,34 +2512,302 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011678</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中银睿丰回报混合型证券投资基金C</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
       </c>
       <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3831,7 +2821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3852,7 +2842,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3882,36 +2872,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000991</t>
+          <t>002351</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票A</t>
+          <t>易方达裕祥回报债券</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.00</t>
+          <t>341.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.10</t>
+          <t>20.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1960</t>
+          <t>3.1740</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3920,36 +2910,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003378</t>
+          <t>001182</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康策略优选灵活配置混合</t>
+          <t>易方达安心回馈混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.39</t>
+          <t>40.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>39.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4386</t>
+          <t>0.9523</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3958,36 +2948,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010874</t>
+          <t>003961</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康品质生活混合A</t>
+          <t>易方达瑞程灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.72</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.55</t>
+          <t>91.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3625</t>
+          <t>0.9236</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3996,36 +2986,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161219</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.33</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3404</t>
+          <t>0.3564</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -4034,36 +3024,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>162203</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>泰达宏利稳定混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>86.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3400</t>
+          <t>0.3143</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -4072,36 +3062,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2880</t>
+          <t>0.3088</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -4110,36 +3100,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>易方达瑞程灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>91.14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2673</t>
+          <t>0.2430</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -4148,36 +3138,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.30</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1721</t>
+          <t>0.2374</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -4186,36 +3176,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010875</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰康品质生活混合C</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.55</t>
+          <t>94.52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1322</t>
+          <t>0.2323</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -4224,36 +3214,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>003882</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>易方达瑞弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>29.17</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1148</t>
+          <t>0.2304</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -4262,36 +3252,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>36.07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1100</t>
+          <t>0.1551</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -4300,36 +3290,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>162205</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>泰达宏利风险预算混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27.72</t>
+          <t>28.61</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0957</t>
+          <t>0.1273</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -4338,36 +3328,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008422</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中融研发创新混合A</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>22.72</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0768</t>
+          <t>0.0960</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -4376,36 +3366,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011473</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票C</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>86.10</t>
+          <t>37.25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.0935</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -4414,36 +3404,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006973</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太平睿盈混合A</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>33.29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.0892</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -4452,36 +3442,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004671</t>
+          <t>003839</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中融核心成长灵活配置混合</t>
+          <t>易方达瑞通灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>27.36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.0849</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -4490,36 +3480,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>000507</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>泰达宏利宏达混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>24.78</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0497</t>
+          <t>0.0643</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -4528,36 +3518,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010008</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融成长优选混合A</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0360</t>
+          <t>0.0540</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -4566,36 +3556,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008423</t>
+          <t>005522</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中融研发创新混合C</t>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>23.39</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0510</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -4604,36 +3594,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010009</t>
+          <t>229002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中融成长优选混合C</t>
+          <t>泰达宏利逆向策略混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>88.68</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -4642,36 +3632,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011618</t>
+          <t>162212</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+          <t>泰达宏利红利先锋混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27.72</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0335</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -4680,36 +3670,530 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007669</t>
+          <t>003912</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太平睿盈混合C</t>
+          <t>泰达宏利启富灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>36.61</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002263</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利同顺大数据量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>44.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003554</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利同顺大数据量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>44.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003913</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +4207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4734,17 +4218,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4754,14 +4258,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.28</v>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6091</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4770,14 +4296,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.42</v>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4786,14 +4334,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.53</v>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4802,14 +4372,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5</v>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4818,14 +4410,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.71</v>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4834,14 +4448,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8.06</v>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -4850,14 +4486,378 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>16</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.32</v>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>4.28</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>1.42</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.53</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>8.06</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.32</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1491,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1842,176 +2143,6 @@
       </c>
       <c r="H9" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2281</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2197</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>30.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0811</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2046,7 +2177,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2086,26 +2217,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2225</t>
+          <t>0.2281</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2124,22 +2255,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2038</t>
+          <t>0.2197</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2162,26 +2293,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31.20</t>
+          <t>30.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0752</t>
+          <t>0.0811</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2190,6 +2321,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2815,7 +3116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4201,7 +4502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603018-华设集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.28</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>1.42</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>8.06</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,694 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6091</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1298,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1792,7 +2833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2143,176 +3184,6 @@
       </c>
       <c r="H9" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2281</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2197</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>30.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0811</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2347,7 +3218,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2387,26 +3258,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2225</t>
+          <t>0.2281</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2425,22 +3296,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2038</t>
+          <t>0.2197</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2463,26 +3334,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31.20</t>
+          <t>30.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0752</t>
+          <t>0.0811</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2491,6 +3362,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3116,7 +4157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4500,668 +5541,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003961</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6091</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001182</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达安心回馈混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>39.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5551</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2495</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2143</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1780</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1154</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1150</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.86</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0884</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0695</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0497</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>